--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/64_Osmaniye_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/64_Osmaniye_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB084F9-4637-448F-8C52-8586FF3E06C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F339C00-EBC8-4303-934A-3A02011C38AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{51C38523-C576-416A-9A4B-4D6DEACB3B06}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{FE987A7B-D90B-491B-952B-90B8D8D9BF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -950,14 +950,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3F05EE2E-A21D-482C-98DB-7D7767B1ED8F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CF125FAD-F0B2-4B37-9EFC-0AE2C45214D5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{18511DE5-8390-4300-BC28-D75FB5AC0AD9}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{FE255DD0-DFE9-427B-B4B3-E9CEAFC717B3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{7354E20B-BDDF-45A8-991D-327AAFAD2C81}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D63364E5-A35E-489B-AC44-AE43D4565B94}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{9E5925C7-A131-499D-8C3F-DFB6BEB4155D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{81F188F2-E8A4-4118-955B-D62B5B322D87}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F0ABB885-D53F-4912-86B8-11A5E99EAF1C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4487CD4B-DCEB-4088-AA49-2BE9E899AD0B}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{FEE9241F-E06E-4B99-9211-1BDF9EDDC176}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{6CC124CA-83B2-4148-81D5-9870BF78ACF7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{00FCF6FA-69DD-4A42-BA91-1FAE33D93F90}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{718293F6-F9D5-4D02-89F7-2815AE43840A}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F5875C93-FB1A-4421-B41B-9E42F1732074}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{41C8890D-BE64-49AC-930C-F63E18CA5B2F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DE6678-8E8C-481E-8F9E-4BC5116AA3D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B31F02-2B54-4941-93F6-A3C1072E6C8D}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2629,18 +2629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8FE8A0F-FE37-430C-8203-C9A92FED7150}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82723889-D4E3-4F91-A489-741DCC6A9A14}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A7091E1B-F8BF-4A44-AA78-D78D6788D319}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B58F1D86-3037-4AE5-B8A6-DBC90D1E709B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{41C6FD45-6A9A-4B1D-8293-5D4F494F0342}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C5FDB7A1-132F-4C6A-8A79-BBEA45F61712}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F248A2B-40E8-4994-80FB-DF536C831547}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C957FC6E-0D7E-41A3-91D2-65FE3860B78F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9FC2C567-6783-4DBC-BD97-C015456AD163}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{942CCF60-7B56-401F-92FE-42B694E6A4FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5FDA182-7B10-4B4F-99A8-C17626375DA1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9039ED79-70FA-4098-9B60-CF38D15459D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71492D33-4B60-4C84-AE55-3FAAFD4719ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BC6D028-B0A1-4F52-911E-8AB8ECE801C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7F31E32-F9EC-44EE-BC5E-A5F18D7DE9A7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C969434-FA91-441C-A3B8-E105C29C2AA7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EAB16133-2E56-445B-AA6D-C1C7F648A296}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EDE1C2DD-5E8C-405C-825C-369A6F36D04B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9508C23C-F427-4CAB-8CAD-CC9873EF59AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1EFCD47-5035-4170-ABC1-F32DE2121A72}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E746E8C-FD24-433B-8ADA-C88235C69705}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{994458CA-0CD9-4B3F-B433-9EF2BC870F36}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A947DA1C-2FFA-4782-BB7A-065B9103E0E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE6F9E70-C5A5-4488-BB0D-FE8EB1C52323}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E6FD2-2E4C-4293-ABC6-0841F827C160}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1202AA1-9EEB-469B-8D11-35ADBE1833FF}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3939,18 +3939,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46D498BE-423A-4923-9712-AA2096A06DC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{033CB7C6-48EC-49C6-849B-FC284C50D950}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5370AA9C-CB4A-482B-8C99-F3FBFB39CECB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDCC1AFE-F71D-4EB0-B157-FB306CA6F418}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2CDCCAB3-286D-4CD6-B117-D9099D373726}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEDCD26F-19EE-4399-A6AB-803A81377868}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D2AC474-83AB-48E9-88AA-348FA0626C54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DB98499-E4CB-45A2-9467-D00DB06BCB91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AB93DAC7-F56E-4F8F-8C42-F43530AA18E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4AF1BD44-3E23-4732-874D-203543A7F32A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8389614-FB92-4F02-BC22-7A52060F9264}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{97AD8C55-BD05-4A50-BA0B-B889B6A4C3CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB01E9B5-C0EF-4E89-B3E0-787D81DDF032}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEC0385E-7247-4653-B499-617E716A400D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F05274E-AB2D-4893-B602-22085AABA64A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F099C775-FD4A-499C-8EA9-7DBF23D1510F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{085A3C17-335F-4E11-A5DA-BCC1F483C7DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{442E6B69-9007-461E-9435-E59D56D6285C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4847A351-5613-4005-A493-F1EB67550335}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01ED4D05-AD0A-4771-A9CB-7EDCB018E8CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC43B512-7A0C-4CC5-8BCE-2266BF6A8F28}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{626B6258-5860-4BAF-981F-0B2C12A9BA17}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E50EE59-6F94-42FE-B752-0E690D6D81FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F4A57C2-3C08-453E-9C06-CBF9F407D921}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3963,7 +3963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D111D3D8-D775-4AEB-98FF-67A53D19629B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BAEA86-5AD3-4A01-BD06-F0B3129FE23A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5251,18 +5251,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CDCB82E-0797-4118-B87A-CE210BBAB8E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8F1B87B-939C-48B9-9676-7910CFE39474}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D351089-2280-414E-BE35-C3852579D7A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91579C7E-1E85-4BF7-84B8-250FB73F45BA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E3269663-5D3D-4839-B4D6-FBE5E9EBED87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D3A4424-658E-4E53-8E8D-AB5920C5B8E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F21F8B6-11EA-43AB-860B-E1DA6CC9E096}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE444449-E5EE-47AC-8F8D-AD1EB645EE46}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC70D409-68D1-4246-B570-2D995FC6EDC3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D44BB949-261D-4CA2-9505-E11A33793BCD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B8A67A3-6333-4092-ACFE-0F4A647E6962}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{869427DC-EE38-4978-ABD3-F30FF461D366}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC519C62-EE83-45A8-A6BB-EE94E72B4933}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C592AAAD-BC3E-4524-A847-D1F0A5F1320D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0F607B90-0EA9-4D48-B065-FC8D504FAFFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A447DC6-B62C-48E3-A37D-4896CF115839}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4BB3A9ED-0BCF-48E9-B3FC-C638B1CBC412}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7D84B5E-EE1F-4929-9D77-1D83B2C3339D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26D0796F-6C3B-4BE6-B0D2-B000A048002A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F78BAD6-EE2B-4F08-848F-D58902762A8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BCC56B8-C47D-47F0-B664-74B505715650}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EED2CF2E-8D8D-4B0A-A3CF-B4CA5F8CC66F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C2D5DF4-06E1-4362-A671-38E4D83EAAE6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD795F17-1AEC-4944-8BE3-70DF69D470A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5275,7 +5275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2046FF-0373-4E43-9536-FA15E246B405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861C7C50-84DA-4EAC-93AA-1FF0C4C0A071}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6547,18 +6547,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98308B33-7E5F-4DF6-A135-F4A892D518E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DC74E3C-344D-4E87-91BA-149471303844}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77157FE2-853E-48DA-BB89-6C152817AF39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71778173-2B9A-4A16-9005-AA5E3F98A6B2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{70E21461-A688-4061-A6CE-94A250108F80}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA32EF3C-5F44-4159-BE78-64A5FA720967}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AFEEB55-D5F7-4165-A0A4-D76BB4EA7794}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C73F04D1-5BE6-439A-BE0C-4E654861ECDF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62D8D1CE-B86A-4525-9131-9D5B6CB92854}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C341E1F-1169-48EE-93D6-56F37A4DE103}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B36580F-27C8-438A-8FE2-F5E7DFF07C0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D847E03-E624-4660-94F8-95E73C26E224}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A38E3C4-C219-4EAC-BED5-0A7ADAB39418}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6F568F1-3D52-4EB4-AA63-0BCFABFAE44A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E81B5E7D-486A-4AF0-960E-BEE7E4272EB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16ABBDC7-8ACA-4C23-940C-44390537497D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{770AAC03-F7F1-4938-B920-26B3D18585F9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D7B4AF4-F81D-4C1C-A5BE-7F9B6C159ABE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DECF4B1-D67B-4439-848D-9C1AD168798D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C085C41-6206-4620-B4A4-7CDBE3914F91}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03A18898-DCF1-4FA7-9D57-0D4EAEBC198A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{610EAED8-402C-446A-8C6F-52E666DC1B75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{063C7BC4-5DE7-4ACA-B819-C8345E8043F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{49CC7C51-FB86-456B-B979-F9E2B894E805}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6571,7 +6571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83288017-D046-4C67-8B9C-299DF5F35972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E557BA-29C5-4E4F-8DF1-287E29A53FA2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7870,18 +7870,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B23D12E-89D6-4EDA-BB39-66A1AE734501}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D6647FF-64CC-4147-9604-C5E2B90ADA31}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A62B5C50-A1F1-494B-9A00-BC5DE46A5324}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D67435E9-C699-4B4D-B1B3-0DD91F1CF176}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{918E29FD-1552-45CE-BCDF-35AD2E7AD763}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E1AE97B-87FB-46E5-BC7F-4594F3DE80BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBBB44E8-648E-495F-9865-77495BAADC57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E2A77C6-78DD-4CA9-86A0-F951B946ACBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{946FA6D9-923C-4EC7-8DE8-056ED8426A83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D24B2FF2-04BF-448D-B232-073D7C63C366}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DB73EBB-E058-42DC-AC63-75264D100A28}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{554956BC-C7B2-4FD2-92F2-EF83BAFCE14F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44EE4AA0-C4F2-42A8-9574-53FBDF911E8A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B90489A6-0163-4007-8FCE-DEF26FC54E18}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E202108-C04F-4ABB-8472-7113A960F7B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91A8C97D-2855-4572-A337-E100BCA5BABC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1C4A4D5A-1843-448D-84CE-46EE1F718B98}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{720F37FF-9080-49F6-BBDF-92547CA89C1B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{120DD33D-3E98-4B64-A036-1C58FA11FE71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D8E54CC-0560-44AA-9F24-82E799E63D12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0033A0EE-577C-40CF-8633-A92512FF0361}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03D85292-5D0E-43F0-8B42-FE703865143E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65281886-A83F-4C32-A8F7-856BF306A3B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{431BA469-6B52-4AC4-A1FD-A70FE21013EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7894,7 +7894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64919D38-06ED-448F-A127-2B7E6E86E63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51443F08-4FB3-4B95-AEA3-2F5A5C3FF61E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9193,18 +9193,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74293A76-2D31-4F5D-8EA0-463C14126B6C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB330A08-A4DA-4449-A763-7E78D8F7C23A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C837566C-576D-4D4E-BA98-450E93D61E44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBB9227E-DD5E-491B-B038-29D044EF12C7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C9B5C114-6F69-4092-82C4-EFA2449738BB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71A5B912-CFBE-4463-8FD6-9E2AF2C601B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D07F572-7AC5-4190-BCEA-862AB6EA2721}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{258523E2-6EED-40E1-83FF-77538458800E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FA8D5EF-A1AA-43E2-B8D2-1789718084D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0E9DDBE5-55CC-49BB-94B1-3F36C2373B84}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0BA5B4B-4CCF-4B6B-BA55-19CE14594373}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1951284-2814-4619-8AA2-5281A2BCDAE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAD819C6-74BA-4CE8-8D92-BB426666C3CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB6C8446-A76B-4F8C-BFCF-92C79D513009}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D14897D3-C8DE-4DB9-93CB-6E856808B851}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52B397DF-2003-4610-B1E8-3B520612988E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4711EEC1-C208-4068-BE44-683DE8900574}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F62D8FCE-4CA0-4980-B6BD-7A0DD7BB4D63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28071223-AEBE-47F5-BD86-AD91F1E2BC0A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90066E04-2F74-44BB-8F4C-7C2E9F00EA53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47153218-F42F-49F8-9D9D-054BB1670FF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B3FC17A-809C-497E-A09E-B09D8F21589A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B57200A-A813-4ED7-8F99-3FEBEFD7B30E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58185674-05C9-43D5-85B6-FDF28D6CEB61}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9217,7 +9217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45554FA1-E15D-4302-B9B7-F4610730281A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2A3092-EAC2-421E-82FA-63DB4D9AA436}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10514,18 +10514,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AC30951-4747-45BF-9F7B-209092817357}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDB897C2-E5E8-4F3C-9CE9-3FD683F29750}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{184276B8-C6E3-46A5-8CD8-CEF0B787E098}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC419C02-DFA4-47AA-96BE-27A894921954}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BA613253-6F98-4DC1-8EDA-903569418BC6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E24DAA7-C751-4209-A9EE-6CD0059542DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6705C5C-206A-4740-B66D-1C7CC3CDFDE1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3764454-7E12-4B56-B9DB-63C59347C8A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BF1DDCB-3BF4-4E44-A7E2-67501F775BC9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2DCF8ED9-2A91-461D-97BC-3501A7941246}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50762922-8E77-4A90-87FA-E170C39FC023}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD988AE8-F768-4F13-9903-D8EF060C371A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F182A1F3-80C3-432D-A3B2-88C4888A9950}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32ED3DAC-A84F-475D-847D-721162505FFA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B985B39E-80C1-456E-B4C6-DA4C237C6D64}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{67A01F60-3AC2-4FC9-B266-9948E6DB05CC}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{217C615D-9685-4164-939C-1B303441C897}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D548AF07-815D-4E34-AB74-78857EF2A3A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{867F2063-B6C8-4433-A4EA-00FB6FF9B9D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A49D0E0C-4AFA-4BE6-8948-2B5421A233B8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3363928A-F3A2-4A87-8A89-2F34EC9EB465}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88C89B61-826E-4049-99DF-C7C3866DF105}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD37A218-EADB-4D3E-BE10-10A36D4FDB2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5565F70-144C-4B40-89C8-05ED48CA193F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10538,7 +10538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953DACE2-7A50-472C-A382-E23807E3A00B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3549655C-C847-4E3A-813B-ED84AA408EF9}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11835,18 +11835,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6082516-B29B-4194-B270-2BB51D49739E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36F1F09D-6FF7-4EBD-A020-7E3DCCF0895E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E926FB4-9A62-476B-AB13-3C7D7738C70A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B35472EB-4CB5-4155-9FA3-73356666A468}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7B0C4F12-4956-4869-AA42-180E417F4F02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F08416B-A681-4F55-B60C-B3C2B7DFBF40}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A79C5E7F-1EB5-4F83-92E5-658FBD9D8040}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FE450FE-CBAE-4D15-8825-DCCBC901D4A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7CDEA26B-9C51-4F23-BDD1-03A97BB61E7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC7F1C21-F0D7-4DBB-9178-1D8FED2FB4C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5218FB86-6344-4DE5-BFAD-59E2A62E3106}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B271CE7E-FD5F-4EA0-9663-DBE92AD10702}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{074421AD-DC77-440A-8BE5-B061635076F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4E3F47B-4CD9-4DBB-A98D-8BFD5BD920D9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF72550D-4865-4480-8657-9BE4857D7FE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D1AD2A8B-BB64-4FBB-A296-47DB08C707F7}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2DFA2D53-83C7-4004-9E63-F4031E63E207}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62F2E40B-B6FF-4C99-BADC-8BB7F98EE6FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38E85D67-40BB-4BFE-BD84-70363960873B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C41A060B-AFBC-41B1-ADE3-835639F920BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22501DB8-F448-43E6-A931-91DA1CC2BBBA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C01203A4-0ADD-4C52-AFE5-8E0A80D9F4E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DA8A205-BC65-499D-978B-BE89CDBB5451}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6572A4D4-2668-4002-B596-3891A131B82C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11859,7 +11859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6303B2-7E9E-4577-A757-F0E4BF166A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CD2A41-EE8F-4B15-81D5-459C28FE983A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13152,18 +13152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{655C88C1-271E-40EB-A3D0-79D053672454}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E57FB1A-69E8-48D7-96AF-7E58D114C175}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24EAEC87-14A6-4B3C-9196-04FCE2506405}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D439D902-ED28-441C-8BB9-3CE7A05D7CA0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F1D3F5F7-F506-40BD-8F14-3ECE1935274B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37D6A4F2-8D7E-4047-88D3-733BA7876451}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29F9F1CC-F162-4422-9C88-E1AB5907B278}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE2ACA1D-CCD3-494D-ABE5-F23CD95111C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9AA741F-FC73-481F-BB3B-536208E3085A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0099D547-CF39-4605-A001-17409E8280D7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27679D57-98B1-4CBF-BF38-CCB7E31C9ECC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33037331-33A6-432D-94C5-2F71D171015C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C37F656A-7310-4C81-BFC1-73EC9C459EF3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6308B2D-1EDD-4724-8B25-352320F97D02}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AB3BC602-9EAE-491E-B95F-10677E537A3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E88B590-4545-410E-8F13-7BFD7F2AEF3D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6600636A-C6D9-43DC-97E7-90428E5EC4EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8906FEC8-A96B-4DDC-87AF-A80321494A4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63C5EB2D-DD4F-4D44-AC3E-B5EAFDBF9977}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{311D9E84-5CA9-430D-9F53-18592104CEEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A65F5CB-D9E3-43A9-B61F-2FD12E08E564}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1769C3AD-D3B2-4635-A036-3188DF642B28}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6369EB82-BF9F-4FAB-BF7A-0A3A48B80151}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAA1D26D-703D-450F-858E-8719AF055D79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13176,7 +13176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2509D62C-C954-475C-9173-BF7111DA1F91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CD644F-0D55-485A-A0B4-E69E42F8B141}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14469,18 +14469,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4877C7B-9542-42DE-A0E5-5FA58892E0F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF50B54D-AC8B-4629-8F35-D93FEA11490B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ED897798-86AA-4104-A0A3-40711DB64F10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4DB76A94-6F4D-4031-9765-57F513AC8126}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EF1E9DC8-1925-43AE-80A2-6EF2A572E187}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC74ECE6-A6A3-455E-B082-12C840AF1193}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D457C2D-5809-46C0-8E7D-6E186FF61E68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{869FAEEC-5D14-43C6-A27C-91544C793435}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{010FED56-54C5-4BEC-97C0-31E9B626416E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5717A9A3-20AA-4E74-8B9C-2ED2CED9F760}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E45BDA7C-326A-4F8A-9AE1-102575E22C04}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7486534A-2272-478B-8ACD-188D62E8FCBC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49810B5D-AFA1-43DF-BA93-107D4E4019E8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81B60F7C-F53A-469A-8AC2-C11A1CE35FF1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBA72A96-72B0-49A6-B541-7A8AA16B072D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{854E0B1C-303A-40EF-9CC0-BEA12B1895B8}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4D3188AA-82DB-413C-80DB-26EC9A36D652}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{854AB62B-1DC2-4C4D-961C-FFFAB46EE1D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E580CA37-5929-42E4-8100-8249D071D9CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87B927F6-9D87-45EE-957E-D0DFDF6BB4D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EE50AB1-7971-444A-ACD7-26C09E824E67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{976A98A6-3585-461A-A51D-D79486EAE889}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4A46044-68D4-42F9-9FC0-C5FBB95816FC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D980ADA-F55E-466B-BBB4-DAF58F104C9B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14493,7 +14493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E27A62-C4C9-4C99-AA6F-BE4EB872A40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4FB6A4-1CA3-4780-B605-8BF816E44BDC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15788,18 +15788,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D25B9DF-9D7F-486C-86BB-8B567A76B8B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5585B80-020D-4DFC-914A-908FC9B88522}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8C72ACE-692F-4329-AB23-CD8487D8028B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FAB758D2-AD48-4807-91F7-091A423F1DEE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8DBDC93F-9913-4092-AFEE-25D01BA5A88B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BE631432-F6F4-432D-8758-67195F615632}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9EB0222-CACB-49F0-9B0F-A9654C84DF53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{245796F7-C111-42EB-A283-DB8A09ACE62D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD2954B6-520E-4CFF-AAA3-35E739084F5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3997137-17B2-46F1-AE72-822FB850B72F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72822EE4-A501-4826-B59E-943E06BDD147}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{52E4827F-800B-4F79-9B60-6DFC49D6C6B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5918F45F-A15D-4527-B8C2-B6A4093F16F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC989223-6599-4FC3-A707-6CC3323D1C12}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2CAE756-CCF1-4C1C-82BA-531D5C4579C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAA9C255-8B03-420A-A997-6503E88C16F1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8A78EEEC-72F1-4FDD-A972-6D705008EA61}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74C78B03-05F6-4A4C-9558-434631C75399}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BE90B98-FFB7-4DD3-89D0-503FEC2F1D3A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C29CA4C-C28D-468F-A5D5-4C98E6D4C745}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08832508-9E9C-4836-BBCB-ED68B9F079E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AFAE717B-7171-4545-A7A1-3F3E8003D136}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7766C143-1E77-476A-99B4-2995B7543071}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85A9B246-45EE-49C5-A69D-364227E759FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15812,7 +15812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E3119-B0DD-4D00-9BA9-EA22BF4F4F7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34D5A5E-25A6-4408-8593-8DFC90CBFF89}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -17108,18 +17108,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74AD6583-4C58-455C-B0EA-E215B497443E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD81D398-212D-40C9-A7A4-3DDD09C9B587}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2F5C5D23-AF8A-4180-891C-7063178B7653}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2F092AC9-61D4-43E2-8624-845D743F5F86}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{103A2F54-2142-4394-B4EE-767B23967BE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A01EE8A-857E-4CEF-8CE5-1D663E8A4FC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9310DA9B-1B39-4327-B325-405D657A07D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEFDD768-8C6D-4E18-944E-140B5CAD7D19}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0ADF9C42-E37D-48F2-9DA6-A24E8931C85D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9AFDC8FF-E6E7-4FE2-9D25-E758758D98FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E21A32E-4107-4C37-AA0D-09D51AA357D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70322FF8-AB4D-4A7F-B120-88552C4E34B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA092567-E183-42F0-9BAC-E1B665187620}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5451E8B-277A-4955-9C16-367615CC4DD1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4D0CC3C-B8AB-4DD6-9FE5-1EB5B770C696}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF2E486A-0EFB-4137-8C87-CA96E4E35632}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{570B4714-6788-4A77-B362-AB6AB86A1A98}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE927AF5-9A1E-4A9B-8210-075F619F47BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{326A7636-314B-4DC6-80C6-4942741D46B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE6C91CC-E425-4D1F-BA3A-834CEDA598D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B7BFFC7-E21D-4C21-922D-EED0C3C5F8AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F9D1D34-0D01-4180-A05D-7E7D8D87C88F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{873E8B33-4125-40D0-AD75-F4B5153F39DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BE06321D-0072-44CD-BBEA-DDA9C74C3B59}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
